--- a/biology/Botanique/Lessardiaceae/Lessardiaceae.xlsx
+++ b/biology/Botanique/Lessardiaceae/Lessardiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lessardiaceae sont une famille d'algues dinoflagellés de l’ordre des Peridiniales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Lessardia, donné en hommage à la biologiste américaine Evelyn Lessard (d) qui récolta l'organisme, en Atlantique nord, sur Georges Bank (en) (au large des côtes du Massachusetts)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Lessardia, donné en hommage à la biologiste américaine Evelyn Lessard (d) qui récolta l'organisme, en Atlantique nord, sur Georges Bank (en) (au large des côtes du Massachusetts).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (12 janvier 2022)[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (12 janvier 2022)
 Lessardia, J.F.Saldarriaga &amp; F.J.R.Taylor
 Lessardia elongata, Saldarriaga &amp; F.J.R.Taylor, 2003</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saldarriaga et al. classent le genre Lessardia dans la famille des Podolampaceae[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saldarriaga et al. classent le genre Lessardia dans la famille des Podolampaceae.
 </t>
         </is>
       </c>
